--- a/TP1/Analyse résultats cas 4.xlsx
+++ b/TP1/Analyse résultats cas 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -385,13 +385,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24:Y33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="C11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -417,7 +417,7 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -461,7 +461,7 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,7 +487,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>3</v>
@@ -509,7 +509,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>4</v>
@@ -531,7 +531,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>5</v>
@@ -553,7 +553,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>6</v>
@@ -575,7 +575,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
         <v>7</v>
@@ -597,7 +597,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
@@ -605,7 +605,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C10">
         <v>1</v>
       </c>
@@ -649,7 +649,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="H12" t="s">
         <v>8</v>
       </c>
@@ -657,7 +657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C14">
         <f>C3*T14</f>
         <v>0</v>
@@ -725,29 +725,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C15">
-        <f t="shared" ref="C15:C20" si="2">C4*T15</f>
+        <f t="shared" ref="C15:C19" si="2">C4*T15</f>
         <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" ref="D15:D20" si="3">D4*U15</f>
+        <f t="shared" ref="D15:D19" si="3">D4*U15</f>
         <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15:E20" si="4">E4*V15</f>
+        <f t="shared" ref="E15:E19" si="4">E4*V15</f>
         <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" ref="F15:F20" si="5">F4*W15</f>
+        <f t="shared" ref="F15:F19" si="5">F4*W15</f>
         <v>8</v>
       </c>
       <c r="G15">
-        <f t="shared" ref="G15:G20" si="6">G4*X15</f>
+        <f t="shared" ref="G15:G19" si="6">G4*X15</f>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H20" si="7">H4*Y15</f>
+        <f t="shared" ref="H15:H19" si="7">H4*Y15</f>
         <v>0</v>
       </c>
       <c r="L15">
@@ -793,7 +793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C16">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -861,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C17">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C18">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -997,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="I20">
         <f>SUM(C14:H19)</f>
         <v>22</v>
@@ -1075,7 +1075,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1101,7 +1101,7 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1145,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>3</v>
@@ -1193,7 +1193,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>4</v>
@@ -1215,7 +1215,7 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" t="s">
         <v>5</v>
@@ -1237,7 +1237,7 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" t="s">
         <v>6</v>
@@ -1259,7 +1259,7 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" t="s">
         <v>7</v>
@@ -1281,7 +1281,7 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -1289,7 +1289,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
     </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C33">
         <v>1</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
     </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
       <c r="H35" t="s">
         <v>8</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C37">
         <f>C26*T37</f>
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C38">
         <f t="shared" ref="C38:C42" si="24">C27*T38</f>
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C39">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C40">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C41">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -1681,7 +1681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C42">
         <f t="shared" si="24"/>
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:25" x14ac:dyDescent="0.3">
       <c r="I43">
         <f>SUM(C37:H42)</f>
         <v>22</v>
